--- a/Simulation/Simulation_experiment/result_cleaned.xlsx
+++ b/Simulation/Simulation_experiment/result_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91354\Documents\Projects\Kinematic_Param_Calibration\Simulation\Simulation_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD53949-1A63-4A2F-B8C5-8788FDFBA868}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCE886F-DDD7-4B8E-A9EC-6CDFDA4861FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Simulation/Simulation_experiment/result_cleaned.xlsx
+++ b/Simulation/Simulation_experiment/result_cleaned.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91354\Documents\Projects\Kinematic_Param_Calibration\Simulation\Simulation_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91354\Documents\Projects\backup\Kinematic_Param_Calibration\Simulation\Simulation_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCE886F-DDD7-4B8E-A9EC-6CDFDA4861FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481A4E32-1644-4A33-A315-E1BE4AFBA3F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M209" sqref="M209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,7 +461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2">
         <v>2</v>
       </c>
@@ -469,25 +469,25 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.24784411845565577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>30.104799066473749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -498,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -510,10 +510,10 @@
         <v>0.1</v>
       </c>
       <c r="H3">
-        <v>0.24829481510604517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>27.286494091383226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -521,25 +521,25 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>0.28264988924087731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>26.992865378856607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5">
         <v>2</v>
       </c>
@@ -547,13 +547,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>0.05</v>
@@ -562,10 +562,10 @@
         <v>0.1</v>
       </c>
       <c r="H5">
-        <v>0.29725047079030181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>26.502229225489895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6">
         <v>2</v>
       </c>
@@ -573,25 +573,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>0.30640142119758179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>25.978126254203026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7">
         <v>2</v>
       </c>
@@ -599,25 +599,25 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>30</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.34220947544742913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24.443427459672389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8">
         <v>2</v>
       </c>
@@ -625,181 +625,181 @@
         <v>4</v>
       </c>
       <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>21.261432949056292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>20.641696264647145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>0.05</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>20.023823553860325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>19.844915319207786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>0.05</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>19.239956600683072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>18.625090149307415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
         <v>20</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>0.05</v>
-      </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-      <c r="H8">
-        <v>0.36813440556718091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>0.05</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>0.37319663282801535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>0.05</v>
-      </c>
-      <c r="G10">
-        <v>0.1</v>
-      </c>
-      <c r="H10">
-        <v>0.37745046397254445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>0.05</v>
-      </c>
-      <c r="G11">
-        <v>0.1</v>
-      </c>
-      <c r="H11">
-        <v>0.39385527575030183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>0.05</v>
-      </c>
-      <c r="G12">
-        <v>0.1</v>
-      </c>
-      <c r="H12">
-        <v>0.40854147256529227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>0.05</v>
-      </c>
-      <c r="G13">
-        <v>0.1</v>
-      </c>
-      <c r="H13">
-        <v>0.42636495479441416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
       <c r="D14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G14">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0.44323323292432681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>17.591192164914283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15">
         <v>2</v>
       </c>
@@ -810,22 +810,22 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>15</v>
       </c>
       <c r="F15">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G15">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H15">
-        <v>0.45412908645482908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14.741039796769432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16">
         <v>2</v>
       </c>
@@ -833,25 +833,25 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.4547963012517745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14.691450363981172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1">
       <c r="A17">
         <v>2</v>
       </c>
@@ -862,22 +862,22 @@
         <v>20</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F17">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0.47247997449448909</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14.591106260970491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18">
         <v>2</v>
       </c>
@@ -885,389 +885,389 @@
         <v>4</v>
       </c>
       <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>0.05</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>14.049067427118842</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>0.2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>13.615238411125464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>0.05</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>13.578159461884983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>13.343359155132074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>13.244435323923616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>0.2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>13.033875843825133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>8.4882080291136397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
         <v>20</v>
       </c>
-      <c r="D18">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>0.1</v>
+      </c>
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>8.2909777550535519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <v>8.1716114539914084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>7.6822381701323277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>0.1</v>
+      </c>
+      <c r="G28">
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <v>5.766104580536128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+      <c r="G29">
+        <v>0.5</v>
+      </c>
+      <c r="H29">
+        <v>5.6612121278631822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="E18">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>0.05</v>
-      </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18">
-        <v>0.47932500016575375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>0.05</v>
-      </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
-      <c r="H19">
-        <v>0.50020743741218954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>30</v>
-      </c>
-      <c r="F20">
-        <v>0.05</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-      <c r="H20">
-        <v>0.81443783107793988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <v>0.05</v>
-      </c>
-      <c r="G21">
-        <v>0.1</v>
-      </c>
-      <c r="H21">
-        <v>1.0298590711368125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>30</v>
-      </c>
-      <c r="F22">
-        <v>0.1</v>
-      </c>
-      <c r="G22">
-        <v>0.5</v>
-      </c>
-      <c r="H22">
-        <v>1.2754718878141937</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>30</v>
-      </c>
-      <c r="F23">
-        <v>0.1</v>
-      </c>
-      <c r="G23">
-        <v>0.5</v>
-      </c>
-      <c r="H23">
-        <v>1.3054647781491691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="F24">
-        <v>0.05</v>
-      </c>
-      <c r="G24">
-        <v>0.1</v>
-      </c>
-      <c r="H24">
-        <v>1.3079098742112507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>30</v>
-      </c>
-      <c r="F25">
-        <v>0.1</v>
-      </c>
-      <c r="G25">
-        <v>0.5</v>
-      </c>
-      <c r="H25">
-        <v>1.4712808785938534</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>30</v>
-      </c>
-      <c r="F26">
-        <v>0.1</v>
-      </c>
-      <c r="G26">
-        <v>0.5</v>
-      </c>
-      <c r="H26">
-        <v>1.5352371113242402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>30</v>
-      </c>
-      <c r="F27">
-        <v>0.1</v>
-      </c>
-      <c r="G27">
-        <v>0.5</v>
-      </c>
-      <c r="H27">
-        <v>1.5445657478173813</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>5.5718606438642881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>0.1</v>
+      </c>
+      <c r="G31">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
+        <v>5.46755167391116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
         <v>20</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>15</v>
-      </c>
-      <c r="F28">
-        <v>0.05</v>
-      </c>
-      <c r="G28">
-        <v>0.1</v>
-      </c>
-      <c r="H28">
-        <v>1.7328312950017104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>30</v>
-      </c>
-      <c r="F29">
-        <v>0.05</v>
-      </c>
-      <c r="G29">
-        <v>0.1</v>
-      </c>
-      <c r="H29">
-        <v>1.7613913212486794</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>15</v>
-      </c>
-      <c r="F30">
-        <v>0.05</v>
-      </c>
-      <c r="G30">
-        <v>0.1</v>
-      </c>
-      <c r="H30">
-        <v>1.776099910069642</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>15</v>
-      </c>
-      <c r="F31">
-        <v>0.1</v>
-      </c>
-      <c r="G31">
-        <v>0.5</v>
-      </c>
-      <c r="H31">
-        <v>1.7908676074473806</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>1.798089282995764</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>5.2071790468146926</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1275,25 +1275,25 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F33">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1.815551400176894</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>4.8845651165204931</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1301,10 +1301,10 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>15</v>
@@ -1316,10 +1316,10 @@
         <v>0.5</v>
       </c>
       <c r="H34">
-        <v>1.8303426141658097</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>4.4892104136032369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1336,16 +1336,16 @@
         <v>30</v>
       </c>
       <c r="F35">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G35">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H35">
-        <v>1.8357044115505154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>4.4837282714884932</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1362,16 +1362,16 @@
         <v>15</v>
       </c>
       <c r="F36">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1.8635480818008152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>4.3782748073145648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1382,22 +1382,22 @@
         <v>20</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F37">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>1.9112537512738528</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>4.2224255947959097</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1405,25 +1405,25 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F38">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>1.9289887411388029</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>4.0683464430403458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1431,103 +1431,103 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>0.1</v>
+      </c>
+      <c r="G39">
+        <v>0.5</v>
+      </c>
+      <c r="H39">
+        <v>4.0399308416767639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>0.2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>4.0147563448609445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>0.2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>3.7949353409597428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
         <v>5</v>
       </c>
-      <c r="E39">
-        <v>15</v>
-      </c>
-      <c r="F39">
-        <v>0.1</v>
-      </c>
-      <c r="G39">
-        <v>0.5</v>
-      </c>
-      <c r="H39">
-        <v>1.9316713713971159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="E40">
-        <v>15</v>
-      </c>
-      <c r="F40">
-        <v>0.1</v>
-      </c>
-      <c r="G40">
-        <v>0.5</v>
-      </c>
-      <c r="H40">
-        <v>1.9454117985411006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>15</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>30</v>
-      </c>
-      <c r="F41">
-        <v>0.05</v>
-      </c>
-      <c r="G41">
-        <v>0.1</v>
-      </c>
-      <c r="H41">
-        <v>2.1537593494984182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42">
         <v>15</v>
       </c>
       <c r="F42">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>2.1557678793928732</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>3.7885603665518746</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1535,25 +1535,25 @@
         <v>4</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>15</v>
       </c>
       <c r="F43">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>2.1771044406448823</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>3.6380113684480633</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -1570,16 +1570,16 @@
         <v>30</v>
       </c>
       <c r="F44">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>2.2424862231858289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>3.4889363333456656</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1587,267 +1587,267 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>0.2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>3.1794742352618002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>0.2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>3.1442075870072967</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>0.2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>3.0884605846572368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="F48">
+        <v>0.2</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>3.0877810517263389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>5</v>
       </c>
-      <c r="E45">
-        <v>30</v>
-      </c>
-      <c r="F45">
-        <v>0.2</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>0.2</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2.9086703093031323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
+      </c>
+      <c r="F50">
+        <v>0.2</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2.8137847795058777</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <v>0.2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2.6886028053363242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="F52">
+        <v>0.2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2.6878788178511979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
+      </c>
+      <c r="F53">
+        <v>0.1</v>
+      </c>
+      <c r="G53">
+        <v>0.5</v>
+      </c>
+      <c r="H53">
+        <v>2.3021149868718558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+      <c r="F54">
+        <v>0.2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
         <v>2.2607359567523502</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>30</v>
-      </c>
-      <c r="F46">
-        <v>0.1</v>
-      </c>
-      <c r="G46">
-        <v>0.5</v>
-      </c>
-      <c r="H46">
-        <v>2.3021149868718558</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
+    <row r="55" spans="1:8" hidden="1">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
         <v>20</v>
-      </c>
-      <c r="D47">
-        <v>10</v>
-      </c>
-      <c r="E47">
-        <v>30</v>
-      </c>
-      <c r="F47">
-        <v>0.2</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>2.6878788178511979</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>15</v>
-      </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
-      <c r="E48">
-        <v>30</v>
-      </c>
-      <c r="F48">
-        <v>0.2</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>2.6886028053363242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49">
-        <v>10</v>
-      </c>
-      <c r="E49">
-        <v>30</v>
-      </c>
-      <c r="F49">
-        <v>0.2</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>2.8137847795058777</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50">
-        <v>15</v>
-      </c>
-      <c r="F50">
-        <v>0.2</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>2.9086703093031323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>10</v>
-      </c>
-      <c r="E51">
-        <v>15</v>
-      </c>
-      <c r="F51">
-        <v>0.2</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>3.0877810517263389</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>30</v>
-      </c>
-      <c r="F52">
-        <v>0.2</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>3.0884605846572368</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>10</v>
-      </c>
-      <c r="E53">
-        <v>30</v>
-      </c>
-      <c r="F53">
-        <v>0.2</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>3.1442075870072967</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>10</v>
-      </c>
-      <c r="D54">
-        <v>10</v>
-      </c>
-      <c r="E54">
-        <v>15</v>
-      </c>
-      <c r="F54">
-        <v>0.2</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>3.1794742352618002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>15</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -1856,16 +1856,16 @@
         <v>30</v>
       </c>
       <c r="F55">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H55">
-        <v>3.4889363333456656</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>2.2424862231858289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1873,25 +1873,25 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E56">
         <v>15</v>
       </c>
       <c r="F56">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H56">
-        <v>3.6380113684480633</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>2.1771044406448823</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1899,77 +1899,77 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <v>0.1</v>
+      </c>
+      <c r="G57">
+        <v>0.5</v>
+      </c>
+      <c r="H57">
+        <v>2.1557678793928732</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>30</v>
+      </c>
+      <c r="F58">
+        <v>0.05</v>
+      </c>
+      <c r="G58">
+        <v>0.1</v>
+      </c>
+      <c r="H58">
+        <v>2.1537593494984182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
         <v>5</v>
       </c>
-      <c r="E57">
-        <v>15</v>
-      </c>
-      <c r="F57">
-        <v>0.2</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>3.7885603665518746</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>15</v>
-      </c>
-      <c r="F58">
-        <v>0.2</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>3.7949353409597428</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
       <c r="E59">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F59">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H59">
-        <v>4.0147563448609445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>1.9454117985411006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1977,13 +1977,13 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F60">
         <v>0.1</v>
@@ -1992,10 +1992,10 @@
         <v>0.5</v>
       </c>
       <c r="H60">
-        <v>4.0399308416767639</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>1.9316713713971159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2003,25 +2003,25 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F61">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H61">
-        <v>4.0683464430403458</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>1.9289887411388029</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2032,22 +2032,22 @@
         <v>20</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F62">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H62">
-        <v>4.2224255947959097</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>1.9112537512738528</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2064,16 +2064,16 @@
         <v>15</v>
       </c>
       <c r="F63">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H63">
-        <v>4.3782748073145648</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>1.8635480818008152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2090,16 +2090,16 @@
         <v>30</v>
       </c>
       <c r="F64">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G64">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H64">
-        <v>4.4837282714884932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>1.8357044115505154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2107,10 +2107,10 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>15</v>
@@ -2122,10 +2122,10 @@
         <v>0.5</v>
       </c>
       <c r="H65">
-        <v>4.4892104136032369</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>1.8303426141658097</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2133,25 +2133,25 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F66">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H66">
-        <v>4.8845651165204931</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>1.815551400176894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2159,25 +2159,25 @@
         <v>4</v>
       </c>
       <c r="C67">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>5</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F67">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H67">
-        <v>5.2071790468146926</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>1.798089282995764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2185,13 +2185,13 @@
         <v>4</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F68">
         <v>0.1</v>
@@ -2200,10 +2200,10 @@
         <v>0.5</v>
       </c>
       <c r="H68">
-        <v>5.46755167391116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>1.7908676074473806</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2211,325 +2211,325 @@
         <v>4</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>15</v>
+      </c>
+      <c r="F69">
+        <v>0.05</v>
+      </c>
+      <c r="G69">
+        <v>0.1</v>
+      </c>
+      <c r="H69">
+        <v>1.776099910069642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>30</v>
+      </c>
+      <c r="F70">
+        <v>0.05</v>
+      </c>
+      <c r="G70">
+        <v>0.1</v>
+      </c>
+      <c r="H70">
+        <v>1.7613913212486794</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>15</v>
+      </c>
+      <c r="F71">
+        <v>0.05</v>
+      </c>
+      <c r="G71">
+        <v>0.1</v>
+      </c>
+      <c r="H71">
+        <v>1.7328312950017104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>30</v>
+      </c>
+      <c r="F72">
+        <v>0.1</v>
+      </c>
+      <c r="G72">
+        <v>0.5</v>
+      </c>
+      <c r="H72">
+        <v>1.5445657478173813</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
         <v>5</v>
       </c>
-      <c r="E69">
-        <v>15</v>
-      </c>
-      <c r="F69">
-        <v>0.2</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>5.5718606438642881</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70">
-        <v>2</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
-      </c>
-      <c r="C70">
-        <v>10</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>15</v>
-      </c>
-      <c r="F70">
-        <v>0.1</v>
-      </c>
-      <c r="G70">
-        <v>0.5</v>
-      </c>
-      <c r="H70">
-        <v>5.6612121278631822</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71">
-        <v>4</v>
-      </c>
-      <c r="C71">
-        <v>15</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>15</v>
-      </c>
-      <c r="F71">
-        <v>0.1</v>
-      </c>
-      <c r="G71">
-        <v>0.5</v>
-      </c>
-      <c r="H71">
-        <v>5.766104580536128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72">
-        <v>4</v>
-      </c>
-      <c r="C72">
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>30</v>
-      </c>
-      <c r="F72">
-        <v>0.2</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>7.6822381701323277</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73">
-        <v>4</v>
-      </c>
-      <c r="C73">
+      <c r="E73">
+        <v>30</v>
+      </c>
+      <c r="F73">
+        <v>0.1</v>
+      </c>
+      <c r="G73">
+        <v>0.5</v>
+      </c>
+      <c r="H73">
+        <v>1.5352371113242402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>15</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
+      </c>
+      <c r="F74">
+        <v>0.1</v>
+      </c>
+      <c r="G74">
+        <v>0.5</v>
+      </c>
+      <c r="H74">
+        <v>1.4712808785938534</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>15</v>
+      </c>
+      <c r="F75">
+        <v>0.05</v>
+      </c>
+      <c r="G75">
+        <v>0.1</v>
+      </c>
+      <c r="H75">
+        <v>1.3079098742112507</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>30</v>
+      </c>
+      <c r="F76">
+        <v>0.1</v>
+      </c>
+      <c r="G76">
+        <v>0.5</v>
+      </c>
+      <c r="H76">
+        <v>1.3054647781491691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
+      </c>
+      <c r="F77">
+        <v>0.1</v>
+      </c>
+      <c r="G77">
+        <v>0.5</v>
+      </c>
+      <c r="H77">
+        <v>1.2754718878141937</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>15</v>
+      </c>
+      <c r="F78">
+        <v>0.05</v>
+      </c>
+      <c r="G78">
+        <v>0.1</v>
+      </c>
+      <c r="H78">
+        <v>1.0298590711368125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
+      </c>
+      <c r="F79">
+        <v>0.05</v>
+      </c>
+      <c r="G79">
+        <v>0.1</v>
+      </c>
+      <c r="H79">
+        <v>0.81443783107793988</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>15</v>
+      </c>
+      <c r="F80">
+        <v>0.05</v>
+      </c>
+      <c r="G80">
+        <v>0.1</v>
+      </c>
+      <c r="H80">
+        <v>0.50020743741218954</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
         <v>20</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>15</v>
-      </c>
-      <c r="F73">
-        <v>0.1</v>
-      </c>
-      <c r="G73">
-        <v>0.5</v>
-      </c>
-      <c r="H73">
-        <v>8.1716114539914084</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74">
-        <v>4</v>
-      </c>
-      <c r="C74">
-        <v>20</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>30</v>
-      </c>
-      <c r="F74">
-        <v>0.1</v>
-      </c>
-      <c r="G74">
-        <v>0.5</v>
-      </c>
-      <c r="H74">
-        <v>8.2909777550535519</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75">
-        <v>2</v>
-      </c>
-      <c r="B75">
-        <v>4</v>
-      </c>
-      <c r="C75">
-        <v>10</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>15</v>
-      </c>
-      <c r="F75">
-        <v>0.2</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>8.4882080291136397</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
-      <c r="C76">
-        <v>15</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>30</v>
-      </c>
-      <c r="F76">
-        <v>0.2</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>13.033875843825133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77">
-        <v>2</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>10</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>30</v>
-      </c>
-      <c r="F77">
-        <v>0.2</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>13.244435323923616</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78">
-        <v>2</v>
-      </c>
-      <c r="B78">
-        <v>4</v>
-      </c>
-      <c r="C78">
-        <v>15</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>15</v>
-      </c>
-      <c r="F78">
-        <v>0.2</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>13.343359155132074</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79">
-        <v>10</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>15</v>
-      </c>
-      <c r="F79">
-        <v>0.05</v>
-      </c>
-      <c r="G79">
-        <v>0.1</v>
-      </c>
-      <c r="H79">
-        <v>13.578159461884983</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80">
-        <v>2</v>
-      </c>
-      <c r="B80">
-        <v>4</v>
-      </c>
-      <c r="C80">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>15</v>
-      </c>
-      <c r="F80">
-        <v>0.2</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>13.615238411125464</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81">
-        <v>4</v>
-      </c>
-      <c r="C81">
-        <v>10</v>
-      </c>
       <c r="D81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F81">
         <v>0.05</v>
@@ -2538,10 +2538,10 @@
         <v>0.1</v>
       </c>
       <c r="H81">
-        <v>14.049067427118842</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.47932500016575375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2552,22 +2552,22 @@
         <v>20</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F82">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H82">
-        <v>14.591106260970491</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.47247997449448909</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2575,25 +2575,25 @@
         <v>4</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F83">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G83">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H83">
-        <v>14.691450363981172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.4547963012517745</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2604,22 +2604,22 @@
         <v>10</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <v>15</v>
       </c>
       <c r="F84">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G84">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H84">
-        <v>14.741039796769432</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.45412908645482908</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2627,181 +2627,181 @@
         <v>4</v>
       </c>
       <c r="C85">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>30</v>
+      </c>
+      <c r="F85">
+        <v>0.05</v>
+      </c>
+      <c r="G85">
+        <v>0.1</v>
+      </c>
+      <c r="H85">
+        <v>0.44323323292432681</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>15</v>
+      </c>
+      <c r="F86">
+        <v>0.05</v>
+      </c>
+      <c r="G86">
+        <v>0.1</v>
+      </c>
+      <c r="H86">
+        <v>0.42636495479441416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>0.05</v>
+      </c>
+      <c r="G87">
+        <v>0.1</v>
+      </c>
+      <c r="H87">
+        <v>0.40854147256529227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>15</v>
+      </c>
+      <c r="F88">
+        <v>0.05</v>
+      </c>
+      <c r="G88">
+        <v>0.1</v>
+      </c>
+      <c r="H88">
+        <v>0.39385527575030183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" hidden="1">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
+      </c>
+      <c r="F89">
+        <v>0.05</v>
+      </c>
+      <c r="G89">
+        <v>0.1</v>
+      </c>
+      <c r="H89">
+        <v>0.37745046397254445</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" hidden="1">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>30</v>
+      </c>
+      <c r="F90">
+        <v>0.05</v>
+      </c>
+      <c r="G90">
+        <v>0.1</v>
+      </c>
+      <c r="H90">
+        <v>0.37319663282801535</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
         <v>20</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>15</v>
-      </c>
-      <c r="F85">
-        <v>0.2</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>17.591192164914283</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86">
-        <v>2</v>
-      </c>
-      <c r="B86">
-        <v>4</v>
-      </c>
-      <c r="C86">
-        <v>15</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>30</v>
-      </c>
-      <c r="F86">
-        <v>0.1</v>
-      </c>
-      <c r="G86">
-        <v>0.5</v>
-      </c>
-      <c r="H86">
-        <v>18.625090149307415</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="C87">
-        <v>15</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>30</v>
-      </c>
-      <c r="F87">
-        <v>0.05</v>
-      </c>
-      <c r="G87">
-        <v>0.1</v>
-      </c>
-      <c r="H87">
-        <v>19.239956600683072</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88">
-        <v>2</v>
-      </c>
-      <c r="B88">
-        <v>4</v>
-      </c>
-      <c r="C88">
-        <v>15</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>15</v>
-      </c>
-      <c r="F88">
-        <v>0.1</v>
-      </c>
-      <c r="G88">
-        <v>0.5</v>
-      </c>
-      <c r="H88">
-        <v>19.844915319207786</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89">
-        <v>2</v>
-      </c>
-      <c r="B89">
-        <v>4</v>
-      </c>
-      <c r="C89">
-        <v>15</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>15</v>
-      </c>
-      <c r="F89">
-        <v>0.05</v>
-      </c>
-      <c r="G89">
-        <v>0.1</v>
-      </c>
-      <c r="H89">
-        <v>20.023823553860325</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90">
-        <v>2</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90">
-        <v>15</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>15</v>
-      </c>
-      <c r="F90">
-        <v>0.2</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>20.641696264647145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91">
-        <v>2</v>
-      </c>
-      <c r="B91">
-        <v>4</v>
-      </c>
-      <c r="C91">
-        <v>15</v>
-      </c>
       <c r="D91">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E91">
         <v>30</v>
       </c>
       <c r="F91">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H91">
-        <v>21.261432949056292</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.36813440556718091</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92">
         <v>2</v>
       </c>
@@ -2809,25 +2809,25 @@
         <v>4</v>
       </c>
       <c r="C92">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E92">
         <v>30</v>
       </c>
       <c r="F92">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H92">
-        <v>24.443427459672389</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.34220947544742913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" hidden="1">
       <c r="A93">
         <v>2</v>
       </c>
@@ -2835,25 +2835,25 @@
         <v>4</v>
       </c>
       <c r="C93">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E93">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F93">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G93">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H93">
-        <v>25.978126254203026</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.30640142119758179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1">
       <c r="A94">
         <v>2</v>
       </c>
@@ -2861,13 +2861,13 @@
         <v>4</v>
       </c>
       <c r="C94">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F94">
         <v>0.05</v>
@@ -2876,10 +2876,10 @@
         <v>0.1</v>
       </c>
       <c r="H94">
-        <v>26.502229225489895</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.29725047079030181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2887,25 +2887,25 @@
         <v>4</v>
       </c>
       <c r="C95">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F95">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G95">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H95">
-        <v>26.992865378856607</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.28264988924087731</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1">
       <c r="A96">
         <v>2</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>20</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E96">
         <v>30</v>
@@ -2928,10 +2928,10 @@
         <v>0.1</v>
       </c>
       <c r="H96">
-        <v>27.286494091383226</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.24829481510604517</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1">
       <c r="A97">
         <v>2</v>
       </c>
@@ -2939,22 +2939,22 @@
         <v>4</v>
       </c>
       <c r="C97">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E97">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F97">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H97">
-        <v>30.104799066473749</v>
+        <v>0.24784411845565577</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1">
@@ -2962,16 +2962,16 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F98">
         <v>0.05</v>
@@ -2980,7 +2980,7 @@
         <v>0.1</v>
       </c>
       <c r="H98">
-        <v>0.17189758808417221</v>
+        <v>30.291464418013</v>
       </c>
     </row>
     <row r="99" spans="1:8" hidden="1">
@@ -2988,25 +2988,25 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>30</v>
       </c>
       <c r="F99">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G99">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H99">
-        <v>0.18236461076508453</v>
+        <v>30.012946542172095</v>
       </c>
     </row>
     <row r="100" spans="1:8" hidden="1">
@@ -3014,25 +3014,25 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F100">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G100">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H100">
-        <v>0.18783096156818924</v>
+        <v>28.494813598829076</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1">
@@ -3040,25 +3040,25 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>20</v>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F101">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G101">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>0.18830030814385865</v>
+        <v>25.74255844308729</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1">
@@ -3066,25 +3066,25 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C102">
         <v>20</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>30</v>
       </c>
       <c r="F102">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G102">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>0.20019638367695647</v>
+        <v>24.343622184744802</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1">
@@ -3092,13 +3092,13 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>30</v>
@@ -3110,7 +3110,7 @@
         <v>0.1</v>
       </c>
       <c r="H103">
-        <v>0.20862530420581865</v>
+        <v>22.165334390343371</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1">
@@ -3118,25 +3118,25 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C104">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>15</v>
       </c>
       <c r="F104">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G104">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H104">
-        <v>0.21402159035977514</v>
+        <v>21.28881466544069</v>
       </c>
     </row>
     <row r="105" spans="1:8" hidden="1">
@@ -3144,16 +3144,16 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F105">
         <v>0.05</v>
@@ -3162,7 +3162,7 @@
         <v>0.1</v>
       </c>
       <c r="H105">
-        <v>0.21448449823686083</v>
+        <v>21.229657284943254</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1">
@@ -3173,22 +3173,22 @@
         <v>4</v>
       </c>
       <c r="C106">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>30</v>
       </c>
       <c r="F106">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G106">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>0.21555958716218965</v>
+        <v>20.857177451897858</v>
       </c>
     </row>
     <row r="107" spans="1:8" hidden="1">
@@ -3196,25 +3196,25 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F107">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G107">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>0.21801167497119964</v>
+        <v>19.15431895915486</v>
       </c>
     </row>
     <row r="108" spans="1:8" hidden="1">
@@ -3222,16 +3222,16 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F108">
         <v>0.05</v>
@@ -3240,7 +3240,7 @@
         <v>0.1</v>
       </c>
       <c r="H108">
-        <v>0.21927559576289907</v>
+        <v>17.819756195667548</v>
       </c>
     </row>
     <row r="109" spans="1:8" hidden="1">
@@ -3248,25 +3248,25 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C109">
         <v>15</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>30</v>
       </c>
       <c r="F109">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G109">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H109">
-        <v>0.22137443723496517</v>
+        <v>17.514911142170245</v>
       </c>
     </row>
     <row r="110" spans="1:8" hidden="1">
@@ -3274,25 +3274,25 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C110">
         <v>10</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>15</v>
       </c>
       <c r="F110">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G110">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H110">
-        <v>0.22934846279378279</v>
+        <v>15.328546074857055</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1">
@@ -3300,25 +3300,25 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F111">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G111">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H111">
-        <v>0.22947816239811786</v>
+        <v>13.779767136925511</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1">
@@ -3326,25 +3326,25 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F112">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G112">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>0.23513208630443252</v>
+        <v>13.703795460701894</v>
       </c>
     </row>
     <row r="113" spans="1:8" hidden="1">
@@ -3355,10 +3355,10 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>30</v>
@@ -3370,7 +3370,7 @@
         <v>0.1</v>
       </c>
       <c r="H113">
-        <v>0.23516950738754105</v>
+        <v>13.086380785965849</v>
       </c>
     </row>
     <row r="114" spans="1:8" hidden="1">
@@ -3378,13 +3378,13 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E114">
         <v>15</v>
@@ -3396,7 +3396,7 @@
         <v>0.1</v>
       </c>
       <c r="H114">
-        <v>0.23989124096080938</v>
+        <v>12.38737924041374</v>
       </c>
     </row>
     <row r="115" spans="1:8" hidden="1">
@@ -3404,25 +3404,25 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C115">
         <v>10</v>
       </c>
       <c r="D115">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>15</v>
       </c>
       <c r="F115">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G115">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>0.24036820051918428</v>
+        <v>11.312719121086667</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1">
@@ -3433,22 +3433,22 @@
         <v>4</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
       <c r="E116">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F116">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G116">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>0.26302320163945764</v>
+        <v>9.7471077263686912</v>
       </c>
     </row>
     <row r="117" spans="1:8" hidden="1">
@@ -3456,25 +3456,25 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F117">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G117">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>0.27078512566736845</v>
+        <v>9.1324007491028176</v>
       </c>
     </row>
     <row r="118" spans="1:8" hidden="1">
@@ -3485,22 +3485,22 @@
         <v>4</v>
       </c>
       <c r="C118">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D118">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F118">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G118">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>0.2922592762043833</v>
+        <v>8.2539611894148859</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1">
@@ -3511,22 +3511,22 @@
         <v>4</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D119">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F119">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G119">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>0.30181659516188136</v>
+        <v>7.6743712253293124</v>
       </c>
     </row>
     <row r="120" spans="1:8" hidden="1">
@@ -3537,22 +3537,22 @@
         <v>4</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>15</v>
       </c>
       <c r="F120">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G120">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>0.3061328898302651</v>
+        <v>5.8277152424349854</v>
       </c>
     </row>
     <row r="121" spans="1:8" hidden="1">
@@ -3560,25 +3560,25 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F121">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G121">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>0.30667621506424114</v>
+        <v>5.7354624476037399</v>
       </c>
     </row>
     <row r="122" spans="1:8" hidden="1">
@@ -3589,22 +3589,22 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D122">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>30</v>
       </c>
       <c r="F122">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G122">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H122">
-        <v>0.30862369444925719</v>
+        <v>4.7627377128044177</v>
       </c>
     </row>
     <row r="123" spans="1:8" hidden="1">
@@ -3615,22 +3615,22 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D123">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F123">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G123">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H123">
-        <v>0.3102845228481983</v>
+        <v>4.091347301484789</v>
       </c>
     </row>
     <row r="124" spans="1:8" hidden="1">
@@ -3641,22 +3641,22 @@
         <v>4</v>
       </c>
       <c r="C124">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F124">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G124">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H124">
-        <v>0.3118330996497774</v>
+        <v>3.7409053437929578</v>
       </c>
     </row>
     <row r="125" spans="1:8" hidden="1">
@@ -3667,22 +3667,22 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F125">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G125">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H125">
-        <v>0.31471266877503645</v>
+        <v>3.7323778822792462</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1">
@@ -3693,7 +3693,7 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -3702,13 +3702,13 @@
         <v>15</v>
       </c>
       <c r="F126">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G126">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>0.32062444747617092</v>
+        <v>3.5906292844721492</v>
       </c>
     </row>
     <row r="127" spans="1:8" hidden="1">
@@ -3719,7 +3719,7 @@
         <v>4</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D127">
         <v>10</v>
@@ -3728,13 +3728,13 @@
         <v>15</v>
       </c>
       <c r="F127">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G127">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>0.32592498792635627</v>
+        <v>3.5528428550042932</v>
       </c>
     </row>
     <row r="128" spans="1:8" hidden="1">
@@ -3745,22 +3745,22 @@
         <v>4</v>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E128">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F128">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G128">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>0.3284774803097133</v>
+        <v>3.2969032635504441</v>
       </c>
     </row>
     <row r="129" spans="1:8" hidden="1">
@@ -3771,22 +3771,22 @@
         <v>4</v>
       </c>
       <c r="C129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E129">
         <v>15</v>
       </c>
       <c r="F129">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G129">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>0.33109332970689237</v>
+        <v>3.2813702192248364</v>
       </c>
     </row>
     <row r="130" spans="1:8" hidden="1">
@@ -3797,22 +3797,22 @@
         <v>4</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E130">
         <v>15</v>
       </c>
       <c r="F130">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G130">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>0.34348955398724446</v>
+        <v>3.2660232114969765</v>
       </c>
     </row>
     <row r="131" spans="1:8" hidden="1">
@@ -3823,22 +3823,22 @@
         <v>4</v>
       </c>
       <c r="C131">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E131">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F131">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G131">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>0.35452378280871621</v>
+        <v>3.2286982614005355</v>
       </c>
     </row>
     <row r="132" spans="1:8" hidden="1">
@@ -3849,22 +3849,22 @@
         <v>4</v>
       </c>
       <c r="C132">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>15</v>
       </c>
       <c r="F132">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G132">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>0.43561259447200723</v>
+        <v>3.2248124593722487</v>
       </c>
     </row>
     <row r="133" spans="1:8" hidden="1">
@@ -3872,25 +3872,25 @@
         <v>4</v>
       </c>
       <c r="B133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E133">
         <v>15</v>
       </c>
       <c r="F133">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G133">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>0.48465141113161259</v>
+        <v>3.1306896902536288</v>
       </c>
     </row>
     <row r="134" spans="1:8" hidden="1">
@@ -3898,25 +3898,25 @@
         <v>4</v>
       </c>
       <c r="B134">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C134">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F134">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G134">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>0.48468536634403858</v>
+        <v>3.0984795716646563</v>
       </c>
     </row>
     <row r="135" spans="1:8" hidden="1">
@@ -3924,25 +3924,25 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E135">
         <v>30</v>
       </c>
       <c r="F135">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G135">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>0.48822712805738977</v>
+        <v>3.0307609546052792</v>
       </c>
     </row>
     <row r="136" spans="1:8" hidden="1">
@@ -3953,22 +3953,22 @@
         <v>4</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F136">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G136">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>0.56969547353651329</v>
+        <v>2.9944274285540105</v>
       </c>
     </row>
     <row r="137" spans="1:8" hidden="1">
@@ -3976,10 +3976,10 @@
         <v>4</v>
       </c>
       <c r="B137">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C137">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -3988,13 +3988,13 @@
         <v>15</v>
       </c>
       <c r="F137">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G137">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>0.61425979788504104</v>
+        <v>2.9493296787981844</v>
       </c>
     </row>
     <row r="138" spans="1:8" hidden="1">
@@ -4002,10 +4002,10 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C138">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -4014,13 +4014,13 @@
         <v>30</v>
       </c>
       <c r="F138">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G138">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>0.62967728571827508</v>
+        <v>2.8984821020601585</v>
       </c>
     </row>
     <row r="139" spans="1:8" hidden="1">
@@ -4028,25 +4028,25 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C139">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F139">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G139">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>0.64497444904179513</v>
+        <v>2.8040012381865629</v>
       </c>
     </row>
     <row r="140" spans="1:8" hidden="1">
@@ -4054,25 +4054,25 @@
         <v>4</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D140">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E140">
         <v>30</v>
       </c>
       <c r="F140">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G140">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>0.6698821530136273</v>
+        <v>2.7154267202988112</v>
       </c>
     </row>
     <row r="141" spans="1:8" hidden="1">
@@ -4080,7 +4080,7 @@
         <v>4</v>
       </c>
       <c r="B141">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C141">
         <v>20</v>
@@ -4092,13 +4092,13 @@
         <v>30</v>
       </c>
       <c r="F141">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G141">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>0.71163323901936215</v>
+        <v>2.7135572300757365</v>
       </c>
     </row>
     <row r="142" spans="1:8" hidden="1">
@@ -4106,25 +4106,25 @@
         <v>4</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D142">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F142">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G142">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H142">
-        <v>0.73284748210422646</v>
+        <v>2.5733970535748778</v>
       </c>
     </row>
     <row r="143" spans="1:8" hidden="1">
@@ -4132,25 +4132,25 @@
         <v>4</v>
       </c>
       <c r="B143">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E143">
         <v>30</v>
       </c>
       <c r="F143">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G143">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>0.80198022437207916</v>
+        <v>2.5706308112470824</v>
       </c>
     </row>
     <row r="144" spans="1:8" hidden="1">
@@ -4161,22 +4161,22 @@
         <v>4</v>
       </c>
       <c r="C144">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E144">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F144">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G144">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>0.83222326500136634</v>
+        <v>2.5552143853413711</v>
       </c>
     </row>
     <row r="145" spans="1:8" hidden="1">
@@ -4184,16 +4184,16 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D145">
         <v>1</v>
       </c>
       <c r="E145">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F145">
         <v>0.1</v>
@@ -4202,7 +4202,7 @@
         <v>0.5</v>
       </c>
       <c r="H145">
-        <v>0.83659433006831174</v>
+        <v>2.5066333976658299</v>
       </c>
     </row>
     <row r="146" spans="1:8" hidden="1">
@@ -4213,22 +4213,22 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E146">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F146">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G146">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>0.85149866269810848</v>
+        <v>2.4907752565872423</v>
       </c>
     </row>
     <row r="147" spans="1:8" hidden="1">
@@ -4239,22 +4239,22 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E147">
         <v>30</v>
       </c>
       <c r="F147">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G147">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>0.86072758991446396</v>
+        <v>2.4320275543470018</v>
       </c>
     </row>
     <row r="148" spans="1:8" hidden="1">
@@ -4262,13 +4262,13 @@
         <v>4</v>
       </c>
       <c r="B148">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C148">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D148">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E148">
         <v>30</v>
@@ -4280,7 +4280,7 @@
         <v>0.5</v>
       </c>
       <c r="H148">
-        <v>0.86789845199924698</v>
+        <v>2.2161440504532264</v>
       </c>
     </row>
     <row r="149" spans="1:8" hidden="1">
@@ -4288,13 +4288,13 @@
         <v>4</v>
       </c>
       <c r="B149">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E149">
         <v>30</v>
@@ -4306,7 +4306,7 @@
         <v>0.5</v>
       </c>
       <c r="H149">
-        <v>0.89263140212481729</v>
+        <v>2.0270697935302664</v>
       </c>
     </row>
     <row r="150" spans="1:8" hidden="1">
@@ -4314,13 +4314,13 @@
         <v>4</v>
       </c>
       <c r="B150">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C150">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E150">
         <v>15</v>
@@ -4332,7 +4332,7 @@
         <v>0.5</v>
       </c>
       <c r="H150">
-        <v>0.89912220533838894</v>
+        <v>2.0211942200394537</v>
       </c>
     </row>
     <row r="151" spans="1:8" hidden="1">
@@ -4340,25 +4340,25 @@
         <v>4</v>
       </c>
       <c r="B151">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F151">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G151">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H151">
-        <v>0.93517863126477452</v>
+        <v>1.9205847114738333</v>
       </c>
     </row>
     <row r="152" spans="1:8" hidden="1">
@@ -4366,10 +4366,10 @@
         <v>4</v>
       </c>
       <c r="B152">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D152">
         <v>5</v>
@@ -4384,7 +4384,7 @@
         <v>0.5</v>
       </c>
       <c r="H152">
-        <v>1.0216981274401613</v>
+        <v>1.7676291838769427</v>
       </c>
     </row>
     <row r="153" spans="1:8" hidden="1">
@@ -4392,13 +4392,13 @@
         <v>4</v>
       </c>
       <c r="B153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D153">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E153">
         <v>15</v>
@@ -4410,7 +4410,7 @@
         <v>0.5</v>
       </c>
       <c r="H153">
-        <v>1.0962083094604886</v>
+        <v>1.7666866389047879</v>
       </c>
     </row>
     <row r="154" spans="1:8" hidden="1">
@@ -4418,25 +4418,25 @@
         <v>4</v>
       </c>
       <c r="B154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C154">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F154">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G154">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H154">
-        <v>1.104174823135089</v>
+        <v>1.6566896468211045</v>
       </c>
     </row>
     <row r="155" spans="1:8" hidden="1">
@@ -4450,19 +4450,19 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>30</v>
       </c>
       <c r="F155">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G155">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H155">
-        <v>1.1173404622556302</v>
+        <v>1.6394600461092637</v>
       </c>
     </row>
     <row r="156" spans="1:8" hidden="1">
@@ -4470,16 +4470,16 @@
         <v>4</v>
       </c>
       <c r="B156">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D156">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E156">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F156">
         <v>0.1</v>
@@ -4488,7 +4488,7 @@
         <v>0.5</v>
       </c>
       <c r="H156">
-        <v>1.1320174035402359</v>
+        <v>1.6251224901587082</v>
       </c>
     </row>
     <row r="157" spans="1:8" hidden="1">
@@ -4496,10 +4496,10 @@
         <v>4</v>
       </c>
       <c r="B157">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C157">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D157">
         <v>5</v>
@@ -4514,7 +4514,7 @@
         <v>0.5</v>
       </c>
       <c r="H157">
-        <v>1.1665153625340738</v>
+        <v>1.6147322507553572</v>
       </c>
     </row>
     <row r="158" spans="1:8" hidden="1">
@@ -4522,16 +4522,16 @@
         <v>4</v>
       </c>
       <c r="B158">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C158">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F158">
         <v>0.1</v>
@@ -4540,7 +4540,7 @@
         <v>0.5</v>
       </c>
       <c r="H158">
-        <v>1.1854585030173379</v>
+        <v>1.5631253842229549</v>
       </c>
     </row>
     <row r="159" spans="1:8" hidden="1">
@@ -4548,13 +4548,13 @@
         <v>4</v>
       </c>
       <c r="B159">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E159">
         <v>15</v>
@@ -4566,7 +4566,7 @@
         <v>0.5</v>
       </c>
       <c r="H159">
-        <v>1.2122165210144307</v>
+        <v>1.5064714988632968</v>
       </c>
     </row>
     <row r="160" spans="1:8" hidden="1">
@@ -4577,10 +4577,10 @@
         <v>4</v>
       </c>
       <c r="C160">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E160">
         <v>15</v>
@@ -4592,7 +4592,7 @@
         <v>0.5</v>
       </c>
       <c r="H160">
-        <v>1.2391830363678416</v>
+        <v>1.4961465703581105</v>
       </c>
     </row>
     <row r="161" spans="1:8" hidden="1">
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D161">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E161">
         <v>15</v>
@@ -4618,7 +4618,7 @@
         <v>0.5</v>
       </c>
       <c r="H161">
-        <v>1.2621545368373017</v>
+        <v>1.4841644574029489</v>
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1">
@@ -4626,16 +4626,16 @@
         <v>4</v>
       </c>
       <c r="B162">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E162">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F162">
         <v>0.1</v>
@@ -4644,7 +4644,7 @@
         <v>0.5</v>
       </c>
       <c r="H162">
-        <v>1.3265995606705769</v>
+        <v>1.4770595323578648</v>
       </c>
     </row>
     <row r="163" spans="1:8" hidden="1">
@@ -4652,16 +4652,16 @@
         <v>4</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C163">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D163">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E163">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F163">
         <v>0.1</v>
@@ -4670,7 +4670,7 @@
         <v>0.5</v>
       </c>
       <c r="H163">
-        <v>1.3492135547216217</v>
+        <v>1.4711225508187145</v>
       </c>
     </row>
     <row r="164" spans="1:8" hidden="1">
@@ -4681,13 +4681,13 @@
         <v>4</v>
       </c>
       <c r="C164">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D164">
         <v>10</v>
       </c>
       <c r="E164">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F164">
         <v>0.1</v>
@@ -4696,7 +4696,7 @@
         <v>0.5</v>
       </c>
       <c r="H164">
-        <v>1.3494904002113972</v>
+        <v>1.4688629295655786</v>
       </c>
     </row>
     <row r="165" spans="1:8" hidden="1">
@@ -4707,22 +4707,22 @@
         <v>4</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E165">
         <v>30</v>
       </c>
       <c r="F165">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G165">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H165">
-        <v>1.3756178201571081</v>
+        <v>1.4403890420296968</v>
       </c>
     </row>
     <row r="166" spans="1:8" hidden="1">
@@ -4739,7 +4739,7 @@
         <v>10</v>
       </c>
       <c r="E166">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F166">
         <v>0.1</v>
@@ -4748,7 +4748,7 @@
         <v>0.5</v>
       </c>
       <c r="H166">
-        <v>1.4031099740895334</v>
+        <v>1.4214094385274696</v>
       </c>
     </row>
     <row r="167" spans="1:8" hidden="1">
@@ -4765,7 +4765,7 @@
         <v>10</v>
       </c>
       <c r="E167">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F167">
         <v>0.1</v>
@@ -4774,7 +4774,7 @@
         <v>0.5</v>
       </c>
       <c r="H167">
-        <v>1.4214094385274696</v>
+        <v>1.4031099740895334</v>
       </c>
     </row>
     <row r="168" spans="1:8" hidden="1">
@@ -4785,22 +4785,22 @@
         <v>4</v>
       </c>
       <c r="C168">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E168">
         <v>30</v>
       </c>
       <c r="F168">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G168">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H168">
-        <v>1.4403890420296968</v>
+        <v>1.3756178201571081</v>
       </c>
     </row>
     <row r="169" spans="1:8" hidden="1">
@@ -4811,13 +4811,13 @@
         <v>4</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D169">
         <v>10</v>
       </c>
       <c r="E169">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F169">
         <v>0.1</v>
@@ -4826,7 +4826,7 @@
         <v>0.5</v>
       </c>
       <c r="H169">
-        <v>1.4688629295655786</v>
+        <v>1.3494904002113972</v>
       </c>
     </row>
     <row r="170" spans="1:8" hidden="1">
@@ -4837,13 +4837,13 @@
         <v>4</v>
       </c>
       <c r="C170">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D170">
         <v>5</v>
       </c>
       <c r="E170">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F170">
         <v>0.1</v>
@@ -4852,7 +4852,7 @@
         <v>0.5</v>
       </c>
       <c r="H170">
-        <v>1.4711225508187145</v>
+        <v>1.2621545368373017</v>
       </c>
     </row>
     <row r="171" spans="1:8" hidden="1">
@@ -4866,10 +4866,10 @@
         <v>15</v>
       </c>
       <c r="D171">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E171">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F171">
         <v>0.1</v>
@@ -4878,7 +4878,7 @@
         <v>0.5</v>
       </c>
       <c r="H171">
-        <v>1.4770595323578648</v>
+        <v>1.2391830363678416</v>
       </c>
     </row>
     <row r="172" spans="1:8" hidden="1">
@@ -4889,13 +4889,13 @@
         <v>4</v>
       </c>
       <c r="C172">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E172">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F172">
         <v>0.1</v>
@@ -4904,7 +4904,7 @@
         <v>0.5</v>
       </c>
       <c r="H172">
-        <v>1.4841644574029489</v>
+        <v>1.1173404622556302</v>
       </c>
     </row>
     <row r="173" spans="1:8" hidden="1">
@@ -4915,22 +4915,22 @@
         <v>4</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D173">
         <v>1</v>
       </c>
       <c r="E173">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F173">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G173">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H173">
-        <v>1.4961465703581105</v>
+        <v>0.86072758991446396</v>
       </c>
     </row>
     <row r="174" spans="1:8" hidden="1">
@@ -4944,19 +4944,19 @@
         <v>20</v>
       </c>
       <c r="D174">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E174">
         <v>15</v>
       </c>
       <c r="F174">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G174">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H174">
-        <v>1.5064714988632968</v>
+        <v>0.85149866269810848</v>
       </c>
     </row>
     <row r="175" spans="1:8" hidden="1">
@@ -4967,22 +4967,22 @@
         <v>4</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D175">
         <v>1</v>
       </c>
       <c r="E175">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F175">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G175">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H175">
-        <v>1.5631253842229549</v>
+        <v>0.83222326500136634</v>
       </c>
     </row>
     <row r="176" spans="1:8" hidden="1">
@@ -4993,22 +4993,22 @@
         <v>4</v>
       </c>
       <c r="C176">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E176">
         <v>15</v>
       </c>
       <c r="F176">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G176">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H176">
-        <v>1.6147322507553572</v>
+        <v>0.56969547353651329</v>
       </c>
     </row>
     <row r="177" spans="1:8" hidden="1">
@@ -5022,19 +5022,19 @@
         <v>20</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E177">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F177">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G177">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H177">
-        <v>1.6251224901587082</v>
+        <v>0.43561259447200723</v>
       </c>
     </row>
     <row r="178" spans="1:8" hidden="1">
@@ -5045,10 +5045,10 @@
         <v>4</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E178">
         <v>30</v>
@@ -5060,7 +5060,7 @@
         <v>0.1</v>
       </c>
       <c r="H178">
-        <v>1.6394600461092637</v>
+        <v>0.35452378280871621</v>
       </c>
     </row>
     <row r="179" spans="1:8" hidden="1">
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179">
         <v>15</v>
@@ -5086,7 +5086,7 @@
         <v>0.1</v>
       </c>
       <c r="H179">
-        <v>1.6566896468211045</v>
+        <v>0.34348955398724446</v>
       </c>
     </row>
     <row r="180" spans="1:8" hidden="1">
@@ -5094,25 +5094,25 @@
         <v>4</v>
       </c>
       <c r="B180">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C180">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E180">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F180">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G180">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H180">
-        <v>1.6768982822525793</v>
+        <v>0.33109332970689237</v>
       </c>
     </row>
     <row r="181" spans="1:8" hidden="1">
@@ -5120,25 +5120,25 @@
         <v>4</v>
       </c>
       <c r="B181">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C181">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D181">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F181">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H181">
-        <v>1.698165824403419</v>
+        <v>0.3284774803097133</v>
       </c>
     </row>
     <row r="182" spans="1:8" hidden="1">
@@ -5146,25 +5146,25 @@
         <v>4</v>
       </c>
       <c r="B182">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C182">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E182">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F182">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H182">
-        <v>1.7215470779464408</v>
+        <v>0.32592498792635627</v>
       </c>
     </row>
     <row r="183" spans="1:8" hidden="1">
@@ -5172,7 +5172,7 @@
         <v>4</v>
       </c>
       <c r="B183">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C183">
         <v>15</v>
@@ -5181,16 +5181,16 @@
         <v>5</v>
       </c>
       <c r="E183">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F183">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H183">
-        <v>1.7421355626393715</v>
+        <v>0.32062444747617092</v>
       </c>
     </row>
     <row r="184" spans="1:8" hidden="1">
@@ -5201,22 +5201,22 @@
         <v>4</v>
       </c>
       <c r="C184">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D184">
         <v>5</v>
       </c>
       <c r="E184">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F184">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G184">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H184">
-        <v>1.7666866389047879</v>
+        <v>0.31471266877503645</v>
       </c>
     </row>
     <row r="185" spans="1:8" hidden="1">
@@ -5233,16 +5233,16 @@
         <v>5</v>
       </c>
       <c r="E185">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F185">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G185">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H185">
-        <v>1.7676291838769427</v>
+        <v>0.3118330996497774</v>
       </c>
     </row>
     <row r="186" spans="1:8" hidden="1">
@@ -5250,16 +5250,16 @@
         <v>4</v>
       </c>
       <c r="B186">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E186">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F186">
         <v>0.05</v>
@@ -5268,7 +5268,7 @@
         <v>0.1</v>
       </c>
       <c r="H186">
-        <v>1.7703669756555638</v>
+        <v>0.3102845228481983</v>
       </c>
     </row>
     <row r="187" spans="1:8" hidden="1">
@@ -5276,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="B187">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C187">
         <v>10</v>
@@ -5288,13 +5288,13 @@
         <v>30</v>
       </c>
       <c r="F187">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H187">
-        <v>1.7708253184261147</v>
+        <v>0.30862369444925719</v>
       </c>
     </row>
     <row r="188" spans="1:8" hidden="1">
@@ -5302,25 +5302,25 @@
         <v>4</v>
       </c>
       <c r="B188">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C188">
         <v>0</v>
       </c>
       <c r="D188">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F188">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H188">
-        <v>1.7849019114164686</v>
+        <v>0.3061328898302651</v>
       </c>
     </row>
     <row r="189" spans="1:8" hidden="1">
@@ -5328,13 +5328,13 @@
         <v>4</v>
       </c>
       <c r="B189">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C189">
         <v>0</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E189">
         <v>30</v>
@@ -5346,7 +5346,7 @@
         <v>0.1</v>
       </c>
       <c r="H189">
-        <v>1.7923613387311861</v>
+        <v>0.30181659516188136</v>
       </c>
     </row>
     <row r="190" spans="1:8" hidden="1">
@@ -5354,25 +5354,25 @@
         <v>4</v>
       </c>
       <c r="B190">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E190">
         <v>15</v>
       </c>
       <c r="F190">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H190">
-        <v>1.8018044367818411</v>
+        <v>0.2922592762043833</v>
       </c>
     </row>
     <row r="191" spans="1:8" hidden="1">
@@ -5380,25 +5380,25 @@
         <v>4</v>
       </c>
       <c r="B191">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C191">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D191">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E191">
         <v>30</v>
       </c>
       <c r="F191">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H191">
-        <v>1.8859141455782857</v>
+        <v>0.26302320163945764</v>
       </c>
     </row>
     <row r="192" spans="1:8" hidden="1">
@@ -5406,25 +5406,25 @@
         <v>4</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D192">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E192">
         <v>30</v>
       </c>
       <c r="F192">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H192">
-        <v>1.8926484456599408</v>
+        <v>0.23516950738754105</v>
       </c>
     </row>
     <row r="193" spans="1:8" hidden="1">
@@ -5438,7 +5438,7 @@
         <v>20</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E193">
         <v>30</v>
@@ -5450,7 +5450,7 @@
         <v>0.1</v>
       </c>
       <c r="H193">
-        <v>1.9205847114738333</v>
+        <v>0.21555958716218965</v>
       </c>
     </row>
     <row r="194" spans="1:8" hidden="1">
@@ -5461,25 +5461,25 @@
         <v>8</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F194">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G194">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H194">
-        <v>1.9311023276159873</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" hidden="1">
+        <v>30.252536325521618</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>4</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>8</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0.5</v>
       </c>
       <c r="H195">
-        <v>1.9780589015526537</v>
+        <v>30.14667536084621</v>
       </c>
     </row>
     <row r="196" spans="1:8" hidden="1">
@@ -5516,7 +5516,7 @@
         <v>20</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E196">
         <v>30</v>
@@ -5528,7 +5528,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>1.9970435482599995</v>
+        <v>29.255200885065658</v>
       </c>
     </row>
     <row r="197" spans="1:8" hidden="1">
@@ -5539,10 +5539,10 @@
         <v>8</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E197">
         <v>15</v>
@@ -5554,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>2.0080680686387655</v>
+        <v>25.998608223049228</v>
       </c>
     </row>
     <row r="198" spans="1:8" hidden="1">
@@ -5562,10 +5562,10 @@
         <v>4</v>
       </c>
       <c r="B198">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -5574,30 +5574,30 @@
         <v>15</v>
       </c>
       <c r="F198">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G198">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H198">
-        <v>2.0211942200394537</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" hidden="1">
+        <v>24.410840866938788</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>4</v>
       </c>
       <c r="B199">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F199">
         <v>0.1</v>
@@ -5606,10 +5606,10 @@
         <v>0.5</v>
       </c>
       <c r="H199">
-        <v>2.0270697935302664</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" hidden="1">
+        <v>23.48860156816189</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>4</v>
       </c>
@@ -5617,10 +5617,10 @@
         <v>8</v>
       </c>
       <c r="C200">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200">
         <v>15</v>
@@ -5632,7 +5632,7 @@
         <v>0.5</v>
       </c>
       <c r="H200">
-        <v>2.0619612078211942</v>
+        <v>20.880004551568696</v>
       </c>
     </row>
     <row r="201" spans="1:8" hidden="1">
@@ -5643,13 +5643,13 @@
         <v>8</v>
       </c>
       <c r="C201">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E201">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F201">
         <v>0.2</v>
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>2.1215074789600461</v>
+        <v>20.32580833459264</v>
       </c>
     </row>
     <row r="202" spans="1:8" hidden="1">
@@ -5669,22 +5669,22 @@
         <v>8</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F202">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H202">
-        <v>2.1737369384607002</v>
+        <v>19.792476161138076</v>
       </c>
     </row>
     <row r="203" spans="1:8" hidden="1">
@@ -5692,28 +5692,28 @@
         <v>4</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C203">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F203">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G203">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>2.2161440504532264</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" hidden="1">
+        <v>18.74547270612446</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>4</v>
       </c>
@@ -5721,22 +5721,22 @@
         <v>8</v>
       </c>
       <c r="C204">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D204">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F204">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H204">
-        <v>2.2211212013073878</v>
+        <v>18.363439276568762</v>
       </c>
     </row>
     <row r="205" spans="1:8" hidden="1">
@@ -5750,19 +5750,19 @@
         <v>15</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E205">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F205">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H205">
-        <v>2.2770927923379363</v>
+        <v>16.959726713019545</v>
       </c>
     </row>
     <row r="206" spans="1:8" hidden="1">
@@ -5773,22 +5773,22 @@
         <v>8</v>
       </c>
       <c r="C206">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F206">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G206">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H206">
-        <v>2.3097490682443373</v>
+        <v>13.568627622327091</v>
       </c>
     </row>
     <row r="207" spans="1:8" hidden="1">
@@ -5799,22 +5799,22 @@
         <v>8</v>
       </c>
       <c r="C207">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F207">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G207">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>2.3097833270061665</v>
+        <v>13.54329679664805</v>
       </c>
     </row>
     <row r="208" spans="1:8" hidden="1">
@@ -5825,10 +5825,10 @@
         <v>8</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E208">
         <v>15</v>
@@ -5840,10 +5840,10 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>2.3161886802673073</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" hidden="1">
+        <v>13.511705340164678</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>4</v>
       </c>
@@ -5854,19 +5854,19 @@
         <v>10</v>
       </c>
       <c r="D209">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E209">
         <v>15</v>
       </c>
       <c r="F209">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H209">
-        <v>2.4069823226438118</v>
+        <v>13.228279207534115</v>
       </c>
     </row>
     <row r="210" spans="1:8" hidden="1">
@@ -5874,28 +5874,28 @@
         <v>4</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C210">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D210">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E210">
         <v>30</v>
       </c>
       <c r="F210">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H210">
-        <v>2.4320275543470018</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" hidden="1">
+        <v>13.074451512290192</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>4</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>8</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -5912,13 +5912,13 @@
         <v>30</v>
       </c>
       <c r="F211">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H211">
-        <v>2.482221169717147</v>
+        <v>12.931439900126302</v>
       </c>
     </row>
     <row r="212" spans="1:8" hidden="1">
@@ -5926,13 +5926,13 @@
         <v>4</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E212">
         <v>30</v>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>2.4907752565872423</v>
+        <v>8.2079381648835223</v>
       </c>
     </row>
     <row r="213" spans="1:8" hidden="1">
@@ -5952,10 +5952,10 @@
         <v>4</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C213">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -5964,13 +5964,13 @@
         <v>15</v>
       </c>
       <c r="F213">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G213">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>2.5066333976658299</v>
+        <v>6.4703793462526829</v>
       </c>
     </row>
     <row r="214" spans="1:8" hidden="1">
@@ -5978,16 +5978,16 @@
         <v>4</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C214">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D214">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F214">
         <v>0.2</v>
@@ -5996,7 +5996,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>2.5552143853413711</v>
+        <v>5.6254832226055695</v>
       </c>
     </row>
     <row r="215" spans="1:8" hidden="1">
@@ -6004,13 +6004,13 @@
         <v>4</v>
       </c>
       <c r="B215">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D215">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E215">
         <v>30</v>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>2.5706308112470824</v>
+        <v>5.6182950636987687</v>
       </c>
     </row>
     <row r="216" spans="1:8" hidden="1">
@@ -6030,51 +6030,51 @@
         <v>4</v>
       </c>
       <c r="B216">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C216">
+        <v>10</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>15</v>
+      </c>
+      <c r="F216">
+        <v>0.2</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>3.875889982668653</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>8</v>
+      </c>
+      <c r="C217">
         <v>20</v>
       </c>
-      <c r="D216">
-        <v>5</v>
-      </c>
-      <c r="E216">
-        <v>15</v>
-      </c>
-      <c r="F216">
-        <v>0.05</v>
-      </c>
-      <c r="G216">
-        <v>0.1</v>
-      </c>
-      <c r="H216">
-        <v>2.5733970535748778</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" hidden="1">
-      <c r="A217">
-        <v>4</v>
-      </c>
-      <c r="B217">
-        <v>8</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
       <c r="D217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F217">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H217">
-        <v>2.6227406325090383</v>
+        <v>3.5324762298011647</v>
       </c>
     </row>
     <row r="218" spans="1:8" hidden="1">
@@ -6082,13 +6082,13 @@
         <v>4</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C218">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D218">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E218">
         <v>30</v>
@@ -6100,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>2.7135572300757365</v>
+        <v>3.4009255421600963</v>
       </c>
     </row>
     <row r="219" spans="1:8" hidden="1">
@@ -6108,7 +6108,7 @@
         <v>4</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C219">
         <v>20</v>
@@ -6117,7 +6117,7 @@
         <v>5</v>
       </c>
       <c r="E219">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F219">
         <v>0.2</v>
@@ -6126,33 +6126,33 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>2.7154267202988112</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" hidden="1">
+        <v>3.3422075744860344</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>4</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C220">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D220">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E220">
         <v>15</v>
       </c>
       <c r="F220">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H220">
-        <v>2.8040012381865629</v>
+        <v>3.0120748804542092</v>
       </c>
     </row>
     <row r="221" spans="1:8" hidden="1">
@@ -6160,13 +6160,13 @@
         <v>4</v>
       </c>
       <c r="B221">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E221">
         <v>30</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>2.8984821020601585</v>
+        <v>2.9623237858042879</v>
       </c>
     </row>
     <row r="222" spans="1:8" hidden="1">
@@ -6186,13 +6186,13 @@
         <v>4</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C222">
         <v>0</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222">
         <v>15</v>
@@ -6204,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>2.9493296787981844</v>
+        <v>2.6227406325090383</v>
       </c>
     </row>
     <row r="223" spans="1:8" hidden="1">
@@ -6215,10 +6215,10 @@
         <v>8</v>
       </c>
       <c r="C223">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D223">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E223">
         <v>30</v>
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>2.9623237858042879</v>
+        <v>2.482221169717147</v>
       </c>
     </row>
     <row r="224" spans="1:8" hidden="1">
@@ -6238,16 +6238,16 @@
         <v>4</v>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E224">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F224">
         <v>0.2</v>
@@ -6256,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>2.9944274285540105</v>
+        <v>2.4069823226438118</v>
       </c>
     </row>
     <row r="225" spans="1:8" hidden="1">
@@ -6267,74 +6267,74 @@
         <v>8</v>
       </c>
       <c r="C225">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E225">
         <v>15</v>
       </c>
       <c r="F225">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G225">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>3.0120748804542092</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" hidden="1">
+        <v>2.3161886802673073</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>4</v>
       </c>
       <c r="B226">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C226">
         <v>15</v>
       </c>
       <c r="D226">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F226">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H226">
-        <v>3.0307609546052792</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" hidden="1">
+        <v>2.3097833270061665</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>4</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C227">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E227">
         <v>30</v>
       </c>
       <c r="F227">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H227">
-        <v>3.0984795716646563</v>
+        <v>2.3097490682443373</v>
       </c>
     </row>
     <row r="228" spans="1:8" hidden="1">
@@ -6342,13 +6342,13 @@
         <v>4</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D228">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E228">
         <v>15</v>
@@ -6360,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>3.1306896902536288</v>
+        <v>2.2770927923379363</v>
       </c>
     </row>
     <row r="229" spans="1:8" hidden="1">
@@ -6368,13 +6368,13 @@
         <v>4</v>
       </c>
       <c r="B229">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E229">
         <v>15</v>
@@ -6386,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>3.2248124593722487</v>
+        <v>2.2211212013073878</v>
       </c>
     </row>
     <row r="230" spans="1:8" hidden="1">
@@ -6394,16 +6394,16 @@
         <v>4</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C230">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D230">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F230">
         <v>0.2</v>
@@ -6412,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>3.2286982614005355</v>
+        <v>2.1737369384607002</v>
       </c>
     </row>
     <row r="231" spans="1:8" hidden="1">
@@ -6420,13 +6420,13 @@
         <v>4</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C231">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D231">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E231">
         <v>15</v>
@@ -6438,33 +6438,33 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>3.2660232114969765</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" hidden="1">
+        <v>2.1215074789600461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>4</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D232">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E232">
         <v>15</v>
       </c>
       <c r="F232">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H232">
-        <v>3.2813702192248364</v>
+        <v>2.0619612078211942</v>
       </c>
     </row>
     <row r="233" spans="1:8" hidden="1">
@@ -6472,10 +6472,10 @@
         <v>4</v>
       </c>
       <c r="B233">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C233">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D233">
         <v>5</v>
@@ -6490,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>3.2969032635504441</v>
+        <v>2.0080680686387655</v>
       </c>
     </row>
     <row r="234" spans="1:8" hidden="1">
@@ -6507,7 +6507,7 @@
         <v>5</v>
       </c>
       <c r="E234">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F234">
         <v>0.2</v>
@@ -6516,10 +6516,10 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>3.3422075744860344</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" hidden="1">
+        <v>1.9970435482599995</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>4</v>
       </c>
@@ -6527,25 +6527,25 @@
         <v>8</v>
       </c>
       <c r="C235">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235">
         <v>30</v>
       </c>
       <c r="F235">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H235">
-        <v>3.4009255421600963</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" hidden="1">
+        <v>1.9780589015526537</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>4</v>
       </c>
@@ -6553,13 +6553,13 @@
         <v>8</v>
       </c>
       <c r="C236">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E236">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F236">
         <v>0.1</v>
@@ -6568,7 +6568,7 @@
         <v>0.5</v>
       </c>
       <c r="H236">
-        <v>3.5324762298011647</v>
+        <v>1.9311023276159873</v>
       </c>
     </row>
     <row r="237" spans="1:8" hidden="1">
@@ -6576,16 +6576,16 @@
         <v>4</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C237">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D237">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F237">
         <v>0.2</v>
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>3.5528428550042932</v>
+        <v>1.8926484456599408</v>
       </c>
     </row>
     <row r="238" spans="1:8" hidden="1">
@@ -6602,16 +6602,16 @@
         <v>4</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C238">
         <v>20</v>
       </c>
       <c r="D238">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E238">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F238">
         <v>0.2</v>
@@ -6620,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>3.5906292844721492</v>
+        <v>1.8859141455782857</v>
       </c>
     </row>
     <row r="239" spans="1:8" hidden="1">
@@ -6628,10 +6628,10 @@
         <v>4</v>
       </c>
       <c r="B239">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C239">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -6640,13 +6640,13 @@
         <v>15</v>
       </c>
       <c r="F239">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G239">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>3.7323778822792462</v>
+        <v>1.8018044367818411</v>
       </c>
     </row>
     <row r="240" spans="1:8" hidden="1">
@@ -6654,25 +6654,25 @@
         <v>4</v>
       </c>
       <c r="B240">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C240">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240">
         <v>30</v>
       </c>
       <c r="F240">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G240">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H240">
-        <v>3.7409053437929578</v>
+        <v>1.7923613387311861</v>
       </c>
     </row>
     <row r="241" spans="1:8" hidden="1">
@@ -6683,13 +6683,13 @@
         <v>8</v>
       </c>
       <c r="C241">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E241">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F241">
         <v>0.2</v>
@@ -6698,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>3.875889982668653</v>
+        <v>1.7849019114164686</v>
       </c>
     </row>
     <row r="242" spans="1:8" hidden="1">
@@ -6706,25 +6706,25 @@
         <v>4</v>
       </c>
       <c r="B242">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C242">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E242">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F242">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G242">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H242">
-        <v>4.091347301484789</v>
+        <v>1.7708253184261147</v>
       </c>
     </row>
     <row r="243" spans="1:8" hidden="1">
@@ -6732,25 +6732,25 @@
         <v>4</v>
       </c>
       <c r="B243">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C243">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F243">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G243">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H243">
-        <v>4.7627377128044177</v>
+        <v>1.7703669756555638</v>
       </c>
     </row>
     <row r="244" spans="1:8" hidden="1">
@@ -6764,7 +6764,7 @@
         <v>15</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E244">
         <v>30</v>
@@ -6776,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>5.6182950636987687</v>
+        <v>1.7421355626393715</v>
       </c>
     </row>
     <row r="245" spans="1:8" hidden="1">
@@ -6787,13 +6787,13 @@
         <v>8</v>
       </c>
       <c r="C245">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E245">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F245">
         <v>0.2</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>5.6254832226055695</v>
+        <v>1.7215470779464408</v>
       </c>
     </row>
     <row r="246" spans="1:8" hidden="1">
@@ -6810,16 +6810,16 @@
         <v>4</v>
       </c>
       <c r="B246">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C246">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E246">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F246">
         <v>0.2</v>
@@ -6828,15 +6828,15 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>5.7354624476037399</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" hidden="1">
+        <v>1.698165824403419</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>4</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C247">
         <v>10</v>
@@ -6845,19 +6845,19 @@
         <v>1</v>
       </c>
       <c r="E247">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F247">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H247">
-        <v>5.8277152424349854</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" hidden="1">
+        <v>1.6768982822525793</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>4</v>
       </c>
@@ -6865,51 +6865,51 @@
         <v>8</v>
       </c>
       <c r="C248">
+        <v>10</v>
+      </c>
+      <c r="D248">
+        <v>10</v>
+      </c>
+      <c r="E248">
+        <v>15</v>
+      </c>
+      <c r="F248">
+        <v>0.1</v>
+      </c>
+      <c r="G248">
+        <v>0.5</v>
+      </c>
+      <c r="H248">
+        <v>1.3492135547216217</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249">
+        <v>4</v>
+      </c>
+      <c r="B249">
+        <v>8</v>
+      </c>
+      <c r="C249">
         <v>20</v>
       </c>
-      <c r="D248">
-        <v>1</v>
-      </c>
-      <c r="E248">
-        <v>15</v>
-      </c>
-      <c r="F248">
-        <v>0.2</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="H248">
-        <v>6.4703793462526829</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" hidden="1">
-      <c r="A249">
-        <v>4</v>
-      </c>
-      <c r="B249">
-        <v>4</v>
-      </c>
-      <c r="C249">
-        <v>15</v>
-      </c>
       <c r="D249">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E249">
         <v>15</v>
       </c>
       <c r="F249">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H249">
-        <v>7.6743712253293124</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" hidden="1">
+        <v>1.3265995606705769</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>4</v>
       </c>
@@ -6917,374 +6917,374 @@
         <v>8</v>
       </c>
       <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>5</v>
+      </c>
+      <c r="E250">
+        <v>15</v>
+      </c>
+      <c r="F250">
+        <v>0.1</v>
+      </c>
+      <c r="G250">
+        <v>0.5</v>
+      </c>
+      <c r="H250">
+        <v>1.2122165210144307</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251">
+        <v>4</v>
+      </c>
+      <c r="B251">
+        <v>8</v>
+      </c>
+      <c r="C251">
+        <v>15</v>
+      </c>
+      <c r="D251">
+        <v>5</v>
+      </c>
+      <c r="E251">
+        <v>15</v>
+      </c>
+      <c r="F251">
+        <v>0.1</v>
+      </c>
+      <c r="G251">
+        <v>0.5</v>
+      </c>
+      <c r="H251">
+        <v>1.1854585030173379</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252">
+        <v>4</v>
+      </c>
+      <c r="B252">
+        <v>8</v>
+      </c>
+      <c r="C252">
+        <v>10</v>
+      </c>
+      <c r="D252">
+        <v>5</v>
+      </c>
+      <c r="E252">
+        <v>15</v>
+      </c>
+      <c r="F252">
+        <v>0.1</v>
+      </c>
+      <c r="G252">
+        <v>0.5</v>
+      </c>
+      <c r="H252">
+        <v>1.1665153625340738</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253">
+        <v>4</v>
+      </c>
+      <c r="B253">
+        <v>8</v>
+      </c>
+      <c r="C253">
+        <v>15</v>
+      </c>
+      <c r="D253">
+        <v>10</v>
+      </c>
+      <c r="E253">
+        <v>15</v>
+      </c>
+      <c r="F253">
+        <v>0.1</v>
+      </c>
+      <c r="G253">
+        <v>0.5</v>
+      </c>
+      <c r="H253">
+        <v>1.1320174035402359</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254">
+        <v>4</v>
+      </c>
+      <c r="B254">
+        <v>8</v>
+      </c>
+      <c r="C254">
         <v>20</v>
       </c>
-      <c r="D250">
-        <v>1</v>
-      </c>
-      <c r="E250">
-        <v>30</v>
-      </c>
-      <c r="F250">
-        <v>0.2</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="H250">
-        <v>8.2079381648835223</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" hidden="1">
-      <c r="A251">
-        <v>4</v>
-      </c>
-      <c r="B251">
-        <v>4</v>
-      </c>
-      <c r="C251">
-        <v>15</v>
-      </c>
-      <c r="D251">
-        <v>1</v>
-      </c>
-      <c r="E251">
-        <v>30</v>
-      </c>
-      <c r="F251">
-        <v>0.2</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="H251">
-        <v>8.2539611894148859</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" hidden="1">
-      <c r="A252">
-        <v>4</v>
-      </c>
-      <c r="B252">
-        <v>4</v>
-      </c>
-      <c r="C252">
+      <c r="D254">
+        <v>5</v>
+      </c>
+      <c r="E254">
+        <v>30</v>
+      </c>
+      <c r="F254">
+        <v>0.1</v>
+      </c>
+      <c r="G254">
+        <v>0.5</v>
+      </c>
+      <c r="H254">
+        <v>1.104174823135089</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255">
+        <v>4</v>
+      </c>
+      <c r="B255">
+        <v>8</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>10</v>
+      </c>
+      <c r="E255">
+        <v>15</v>
+      </c>
+      <c r="F255">
+        <v>0.1</v>
+      </c>
+      <c r="G255">
+        <v>0.5</v>
+      </c>
+      <c r="H255">
+        <v>1.0962083094604886</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256">
+        <v>4</v>
+      </c>
+      <c r="B256">
+        <v>8</v>
+      </c>
+      <c r="C256">
+        <v>15</v>
+      </c>
+      <c r="D256">
+        <v>5</v>
+      </c>
+      <c r="E256">
+        <v>30</v>
+      </c>
+      <c r="F256">
+        <v>0.1</v>
+      </c>
+      <c r="G256">
+        <v>0.5</v>
+      </c>
+      <c r="H256">
+        <v>1.0216981274401613</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257">
+        <v>4</v>
+      </c>
+      <c r="B257">
+        <v>8</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>15</v>
+      </c>
+      <c r="F257">
+        <v>0.1</v>
+      </c>
+      <c r="G257">
+        <v>0.5</v>
+      </c>
+      <c r="H257">
+        <v>0.93517863126477452</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258">
+        <v>4</v>
+      </c>
+      <c r="B258">
+        <v>8</v>
+      </c>
+      <c r="C258">
         <v>20</v>
       </c>
-      <c r="D252">
-        <v>1</v>
-      </c>
-      <c r="E252">
-        <v>30</v>
-      </c>
-      <c r="F252">
-        <v>0.2</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="H252">
-        <v>9.1324007491028176</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" hidden="1">
-      <c r="A253">
-        <v>4</v>
-      </c>
-      <c r="B253">
-        <v>4</v>
-      </c>
-      <c r="C253">
+      <c r="D258">
+        <v>10</v>
+      </c>
+      <c r="E258">
+        <v>15</v>
+      </c>
+      <c r="F258">
+        <v>0.1</v>
+      </c>
+      <c r="G258">
+        <v>0.5</v>
+      </c>
+      <c r="H258">
+        <v>0.89912220533838894</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259">
+        <v>4</v>
+      </c>
+      <c r="B259">
+        <v>8</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>5</v>
+      </c>
+      <c r="E259">
+        <v>30</v>
+      </c>
+      <c r="F259">
+        <v>0.1</v>
+      </c>
+      <c r="G259">
+        <v>0.5</v>
+      </c>
+      <c r="H259">
+        <v>0.89263140212481729</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260">
+        <v>4</v>
+      </c>
+      <c r="B260">
+        <v>8</v>
+      </c>
+      <c r="C260">
+        <v>15</v>
+      </c>
+      <c r="D260">
+        <v>10</v>
+      </c>
+      <c r="E260">
+        <v>30</v>
+      </c>
+      <c r="F260">
+        <v>0.1</v>
+      </c>
+      <c r="G260">
+        <v>0.5</v>
+      </c>
+      <c r="H260">
+        <v>0.86789845199924698</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261">
+        <v>4</v>
+      </c>
+      <c r="B261">
+        <v>8</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>30</v>
+      </c>
+      <c r="F261">
+        <v>0.1</v>
+      </c>
+      <c r="G261">
+        <v>0.5</v>
+      </c>
+      <c r="H261">
+        <v>0.83659433006831174</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262">
+        <v>4</v>
+      </c>
+      <c r="B262">
+        <v>8</v>
+      </c>
+      <c r="C262">
+        <v>10</v>
+      </c>
+      <c r="D262">
+        <v>5</v>
+      </c>
+      <c r="E262">
+        <v>30</v>
+      </c>
+      <c r="F262">
+        <v>0.1</v>
+      </c>
+      <c r="G262">
+        <v>0.5</v>
+      </c>
+      <c r="H262">
+        <v>0.80198022437207916</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263">
+        <v>4</v>
+      </c>
+      <c r="B263">
+        <v>8</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>10</v>
+      </c>
+      <c r="E263">
+        <v>30</v>
+      </c>
+      <c r="F263">
+        <v>0.1</v>
+      </c>
+      <c r="G263">
+        <v>0.5</v>
+      </c>
+      <c r="H263">
+        <v>0.73284748210422646</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264">
+        <v>4</v>
+      </c>
+      <c r="B264">
+        <v>8</v>
+      </c>
+      <c r="C264">
         <v>20</v>
       </c>
-      <c r="D253">
-        <v>1</v>
-      </c>
-      <c r="E253">
-        <v>15</v>
-      </c>
-      <c r="F253">
-        <v>0.2</v>
-      </c>
-      <c r="G253">
-        <v>1</v>
-      </c>
-      <c r="H253">
-        <v>9.7471077263686912</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" hidden="1">
-      <c r="A254">
-        <v>4</v>
-      </c>
-      <c r="B254">
-        <v>4</v>
-      </c>
-      <c r="C254">
-        <v>10</v>
-      </c>
-      <c r="D254">
-        <v>0</v>
-      </c>
-      <c r="E254">
-        <v>15</v>
-      </c>
-      <c r="F254">
-        <v>0.2</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="H254">
-        <v>11.312719121086667</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" hidden="1">
-      <c r="A255">
-        <v>4</v>
-      </c>
-      <c r="B255">
-        <v>4</v>
-      </c>
-      <c r="C255">
-        <v>10</v>
-      </c>
-      <c r="D255">
-        <v>0</v>
-      </c>
-      <c r="E255">
-        <v>15</v>
-      </c>
-      <c r="F255">
-        <v>0.05</v>
-      </c>
-      <c r="G255">
-        <v>0.1</v>
-      </c>
-      <c r="H255">
-        <v>12.38737924041374</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" hidden="1">
-      <c r="A256">
-        <v>4</v>
-      </c>
-      <c r="B256">
-        <v>8</v>
-      </c>
-      <c r="C256">
-        <v>10</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-      <c r="E256">
-        <v>30</v>
-      </c>
-      <c r="F256">
-        <v>0.1</v>
-      </c>
-      <c r="G256">
-        <v>0.5</v>
-      </c>
-      <c r="H256">
-        <v>12.931439900126302</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" hidden="1">
-      <c r="A257">
-        <v>4</v>
-      </c>
-      <c r="B257">
-        <v>8</v>
-      </c>
-      <c r="C257">
-        <v>10</v>
-      </c>
-      <c r="D257">
-        <v>0</v>
-      </c>
-      <c r="E257">
-        <v>30</v>
-      </c>
-      <c r="F257">
-        <v>0.05</v>
-      </c>
-      <c r="G257">
-        <v>0.1</v>
-      </c>
-      <c r="H257">
-        <v>13.074451512290192</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" hidden="1">
-      <c r="A258">
-        <v>4</v>
-      </c>
-      <c r="B258">
-        <v>4</v>
-      </c>
-      <c r="C258">
-        <v>10</v>
-      </c>
-      <c r="D258">
-        <v>0</v>
-      </c>
-      <c r="E258">
-        <v>30</v>
-      </c>
-      <c r="F258">
-        <v>0.05</v>
-      </c>
-      <c r="G258">
-        <v>0.1</v>
-      </c>
-      <c r="H258">
-        <v>13.086380785965849</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" hidden="1">
-      <c r="A259">
-        <v>4</v>
-      </c>
-      <c r="B259">
-        <v>8</v>
-      </c>
-      <c r="C259">
-        <v>10</v>
-      </c>
-      <c r="D259">
-        <v>0</v>
-      </c>
-      <c r="E259">
-        <v>15</v>
-      </c>
-      <c r="F259">
-        <v>0.1</v>
-      </c>
-      <c r="G259">
-        <v>0.5</v>
-      </c>
-      <c r="H259">
-        <v>13.228279207534115</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" hidden="1">
-      <c r="A260">
-        <v>4</v>
-      </c>
-      <c r="B260">
-        <v>8</v>
-      </c>
-      <c r="C260">
-        <v>10</v>
-      </c>
-      <c r="D260">
-        <v>0</v>
-      </c>
-      <c r="E260">
-        <v>15</v>
-      </c>
-      <c r="F260">
-        <v>0.2</v>
-      </c>
-      <c r="G260">
-        <v>1</v>
-      </c>
-      <c r="H260">
-        <v>13.511705340164678</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" hidden="1">
-      <c r="A261">
-        <v>4</v>
-      </c>
-      <c r="B261">
-        <v>8</v>
-      </c>
-      <c r="C261">
-        <v>10</v>
-      </c>
-      <c r="D261">
-        <v>0</v>
-      </c>
-      <c r="E261">
-        <v>30</v>
-      </c>
-      <c r="F261">
-        <v>0.2</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="H261">
-        <v>13.54329679664805</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" hidden="1">
-      <c r="A262">
-        <v>4</v>
-      </c>
-      <c r="B262">
-        <v>8</v>
-      </c>
-      <c r="C262">
-        <v>10</v>
-      </c>
-      <c r="D262">
-        <v>0</v>
-      </c>
-      <c r="E262">
-        <v>15</v>
-      </c>
-      <c r="F262">
-        <v>0.05</v>
-      </c>
-      <c r="G262">
-        <v>0.1</v>
-      </c>
-      <c r="H262">
-        <v>13.568627622327091</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" hidden="1">
-      <c r="A263">
-        <v>4</v>
-      </c>
-      <c r="B263">
-        <v>4</v>
-      </c>
-      <c r="C263">
-        <v>10</v>
-      </c>
-      <c r="D263">
-        <v>0</v>
-      </c>
-      <c r="E263">
-        <v>30</v>
-      </c>
-      <c r="F263">
-        <v>0.2</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-      <c r="H263">
-        <v>13.703795460701894</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" hidden="1">
-      <c r="A264">
-        <v>4</v>
-      </c>
-      <c r="B264">
-        <v>4</v>
-      </c>
-      <c r="C264">
-        <v>10</v>
-      </c>
       <c r="D264">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E264">
         <v>30</v>
@@ -7296,24 +7296,24 @@
         <v>0.5</v>
       </c>
       <c r="H264">
-        <v>13.779767136925511</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" hidden="1">
+        <v>0.71163323901936215</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>4</v>
       </c>
       <c r="B265">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C265">
         <v>10</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E265">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F265">
         <v>0.1</v>
@@ -7322,7 +7322,7 @@
         <v>0.5</v>
       </c>
       <c r="H265">
-        <v>15.328546074857055</v>
+        <v>0.6698821530136273</v>
       </c>
     </row>
     <row r="266" spans="1:8" hidden="1">
@@ -7333,10 +7333,10 @@
         <v>8</v>
       </c>
       <c r="C266">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E266">
         <v>30</v>
@@ -7348,7 +7348,7 @@
         <v>0.1</v>
       </c>
       <c r="H266">
-        <v>16.959726713019545</v>
+        <v>0.64497444904179513</v>
       </c>
     </row>
     <row r="267" spans="1:8" hidden="1">
@@ -7356,25 +7356,25 @@
         <v>4</v>
       </c>
       <c r="B267">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C267">
         <v>15</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E267">
         <v>30</v>
       </c>
       <c r="F267">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G267">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H267">
-        <v>17.514911142170245</v>
+        <v>0.62967728571827508</v>
       </c>
     </row>
     <row r="268" spans="1:8" hidden="1">
@@ -7382,16 +7382,16 @@
         <v>4</v>
       </c>
       <c r="B268">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C268">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E268">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F268">
         <v>0.05</v>
@@ -7400,7 +7400,7 @@
         <v>0.1</v>
       </c>
       <c r="H268">
-        <v>17.819756195667548</v>
+        <v>0.61425979788504104</v>
       </c>
     </row>
     <row r="269" spans="1:8" hidden="1">
@@ -7411,22 +7411,22 @@
         <v>8</v>
       </c>
       <c r="C269">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269">
         <v>30</v>
       </c>
       <c r="F269">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G269">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H269">
-        <v>18.363439276568762</v>
+        <v>0.48822712805738977</v>
       </c>
     </row>
     <row r="270" spans="1:8" hidden="1">
@@ -7440,19 +7440,19 @@
         <v>15</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E270">
         <v>15</v>
       </c>
       <c r="F270">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G270">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H270">
-        <v>18.74547270612446</v>
+        <v>0.48468536634403858</v>
       </c>
     </row>
     <row r="271" spans="1:8" hidden="1">
@@ -7460,25 +7460,25 @@
         <v>4</v>
       </c>
       <c r="B271">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C271">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E271">
         <v>15</v>
       </c>
       <c r="F271">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G271">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H271">
-        <v>19.15431895915486</v>
+        <v>0.48465141113161259</v>
       </c>
     </row>
     <row r="272" spans="1:8" hidden="1">
@@ -7489,10 +7489,10 @@
         <v>8</v>
       </c>
       <c r="C272">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E272">
         <v>15</v>
@@ -7504,7 +7504,7 @@
         <v>0.1</v>
       </c>
       <c r="H272">
-        <v>19.792476161138076</v>
+        <v>0.30667621506424114</v>
       </c>
     </row>
     <row r="273" spans="1:8" hidden="1">
@@ -7518,19 +7518,19 @@
         <v>15</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E273">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F273">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G273">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H273">
-        <v>20.32580833459264</v>
+        <v>0.27078512566736845</v>
       </c>
     </row>
     <row r="274" spans="1:8" hidden="1">
@@ -7538,25 +7538,25 @@
         <v>4</v>
       </c>
       <c r="B274">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C274">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E274">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F274">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G274">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H274">
-        <v>20.857177451897858</v>
+        <v>0.24036820051918428</v>
       </c>
     </row>
     <row r="275" spans="1:8" hidden="1">
@@ -7570,19 +7570,19 @@
         <v>15</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E275">
         <v>15</v>
       </c>
       <c r="F275">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G275">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H275">
-        <v>20.880004551568696</v>
+        <v>0.23989124096080938</v>
       </c>
     </row>
     <row r="276" spans="1:8" hidden="1">
@@ -7590,13 +7590,13 @@
         <v>4</v>
       </c>
       <c r="B276">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C276">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E276">
         <v>15</v>
@@ -7608,7 +7608,7 @@
         <v>0.1</v>
       </c>
       <c r="H276">
-        <v>21.229657284943254</v>
+        <v>0.23513208630443252</v>
       </c>
     </row>
     <row r="277" spans="1:8" hidden="1">
@@ -7616,25 +7616,25 @@
         <v>4</v>
       </c>
       <c r="B277">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C277">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E277">
         <v>15</v>
       </c>
       <c r="F277">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G277">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H277">
-        <v>21.28881466544069</v>
+        <v>0.22947816239811786</v>
       </c>
     </row>
     <row r="278" spans="1:8" hidden="1">
@@ -7642,16 +7642,16 @@
         <v>4</v>
       </c>
       <c r="B278">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C278">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E278">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F278">
         <v>0.05</v>
@@ -7660,7 +7660,7 @@
         <v>0.1</v>
       </c>
       <c r="H278">
-        <v>22.165334390343371</v>
+        <v>0.22934846279378279</v>
       </c>
     </row>
     <row r="279" spans="1:8" hidden="1">
@@ -7671,22 +7671,22 @@
         <v>8</v>
       </c>
       <c r="C279">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E279">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F279">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G279">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H279">
-        <v>23.48860156816189</v>
+        <v>0.22137443723496517</v>
       </c>
     </row>
     <row r="280" spans="1:8" hidden="1">
@@ -7694,25 +7694,25 @@
         <v>4</v>
       </c>
       <c r="B280">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C280">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D280">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E280">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F280">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G280">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H280">
-        <v>24.343622184744802</v>
+        <v>0.21927559576289907</v>
       </c>
     </row>
     <row r="281" spans="1:8" hidden="1">
@@ -7723,13 +7723,13 @@
         <v>8</v>
       </c>
       <c r="C281">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D281">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E281">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F281">
         <v>0.05</v>
@@ -7738,7 +7738,7 @@
         <v>0.1</v>
       </c>
       <c r="H281">
-        <v>24.410840866938788</v>
+        <v>0.21801167497119964</v>
       </c>
     </row>
     <row r="282" spans="1:8" hidden="1">
@@ -7746,25 +7746,25 @@
         <v>4</v>
       </c>
       <c r="B282">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C282">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F282">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G282">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H282">
-        <v>25.74255844308729</v>
+        <v>0.21448449823686083</v>
       </c>
     </row>
     <row r="283" spans="1:8" hidden="1">
@@ -7778,19 +7778,19 @@
         <v>20</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E283">
         <v>15</v>
       </c>
       <c r="F283">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G283">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H283">
-        <v>25.998608223049228</v>
+        <v>0.21402159035977514</v>
       </c>
     </row>
     <row r="284" spans="1:8" hidden="1">
@@ -7798,25 +7798,25 @@
         <v>4</v>
       </c>
       <c r="B284">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C284">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E284">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F284">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G284">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H284">
-        <v>28.494813598829076</v>
+        <v>0.20862530420581865</v>
       </c>
     </row>
     <row r="285" spans="1:8" hidden="1">
@@ -7830,19 +7830,19 @@
         <v>20</v>
       </c>
       <c r="D285">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E285">
         <v>30</v>
       </c>
       <c r="F285">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G285">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H285">
-        <v>29.255200885065658</v>
+        <v>0.20019638367695647</v>
       </c>
     </row>
     <row r="286" spans="1:8" hidden="1">
@@ -7850,25 +7850,25 @@
         <v>4</v>
       </c>
       <c r="B286">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C286">
         <v>20</v>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E286">
         <v>30</v>
       </c>
       <c r="F286">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G286">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H286">
-        <v>30.012946542172095</v>
+        <v>0.18830030814385865</v>
       </c>
     </row>
     <row r="287" spans="1:8" hidden="1">
@@ -7879,22 +7879,22 @@
         <v>8</v>
       </c>
       <c r="C287">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D287">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E287">
         <v>30</v>
       </c>
       <c r="F287">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G287">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H287">
-        <v>30.14667536084621</v>
+        <v>0.18783096156818924</v>
       </c>
     </row>
     <row r="288" spans="1:8" hidden="1">
@@ -7905,10 +7905,10 @@
         <v>8</v>
       </c>
       <c r="C288">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D288">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E288">
         <v>30</v>
@@ -7920,7 +7920,7 @@
         <v>0.1</v>
       </c>
       <c r="H288">
-        <v>30.252536325521618</v>
+        <v>0.18236461076508453</v>
       </c>
     </row>
     <row r="289" spans="1:8" hidden="1">
@@ -7928,16 +7928,16 @@
         <v>4</v>
       </c>
       <c r="B289">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C289">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E289">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F289">
         <v>0.05</v>
@@ -7946,27 +7946,32 @@
         <v>0.1</v>
       </c>
       <c r="H289">
-        <v>30.291464418013</v>
+        <v>0.17189758808417221</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H289" xr:uid="{F02B6A68-EFCE-4DB2-8485-03413EA36C6A}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="4"/>
+        <filter val="8"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:H97">
-      <sortCondition ref="H1:H289"/>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0.1"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:H289">
+      <sortCondition descending="1" ref="H1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:H290">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:H291">
+    <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
